--- a/Data/Modeling Stage/Results/R_Gonz/Non temporal models/ensemble_models_results_Date_threshold_100_1_replicas_SMOTE.xlsx
+++ b/Data/Modeling Stage/Results/R_Gonz/Non temporal models/ensemble_models_results_Date_threshold_100_1_replicas_SMOTE.xlsx
@@ -15,7 +15,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="95">
+  <si>
+    <t>Baseline - Majority Class</t>
+  </si>
   <si>
     <t>RF</t>
   </si>
@@ -29,9 +32,6 @@
     <t>ExtraTree</t>
   </si>
   <si>
-    <t>Baseline - Majority Class</t>
-  </si>
-  <si>
     <t>Train Accuracy (F1 Score micro)</t>
   </si>
   <si>
@@ -62,7 +62,25 @@
     <t>Time</t>
   </si>
   <si>
-    <t>0.973+/-0.0</t>
+    <t>0.5+/-0.0</t>
+  </si>
+  <si>
+    <t>0.619</t>
+  </si>
+  <si>
+    <t>0.05+/-0.15</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>0.1+/-0.3</t>
+  </si>
+  <si>
+    <t>0.001+/-0.0</t>
+  </si>
+  <si>
+    <t>0.972+/-0.001</t>
   </si>
   <si>
     <t>0.953+/-0.0</t>
@@ -71,223 +89,217 @@
     <t>0.948</t>
   </si>
   <si>
-    <t>0.979+/-0.001</t>
-  </si>
-  <si>
-    <t>0.964+/-0.008</t>
-  </si>
-  <si>
-    <t>0.944</t>
-  </si>
-  <si>
-    <t>0.966+/-0.001</t>
-  </si>
-  <si>
-    <t>0.942+/-0.005</t>
-  </si>
-  <si>
-    <t>0.919</t>
-  </si>
-  <si>
-    <t>10.666+/-0.108</t>
-  </si>
-  <si>
-    <t>0.932+/-0.001</t>
+    <t>0.98+/-0.001</t>
+  </si>
+  <si>
+    <t>0.965+/-0.007</t>
+  </si>
+  <si>
+    <t>0.945</t>
+  </si>
+  <si>
+    <t>0.963+/-0.002</t>
+  </si>
+  <si>
+    <t>0.941+/-0.005</t>
+  </si>
+  <si>
+    <t>0.918</t>
+  </si>
+  <si>
+    <t>16.512+/-1.184</t>
+  </si>
+  <si>
+    <t>0.935+/-0.001</t>
   </si>
   <si>
     <t>0.927+/-0.0</t>
   </si>
   <si>
-    <t>0.932</t>
-  </si>
-  <si>
-    <t>0.955+/-0.001</t>
-  </si>
-  <si>
-    <t>0.951+/-0.007</t>
+    <t>0.93</t>
+  </si>
+  <si>
+    <t>0.957+/-0.001</t>
+  </si>
+  <si>
+    <t>0.951+/-0.008</t>
+  </si>
+  <si>
+    <t>0.925</t>
+  </si>
+  <si>
+    <t>0.91+/-0.002</t>
+  </si>
+  <si>
+    <t>0.901+/-0.011</t>
+  </si>
+  <si>
+    <t>0.889</t>
+  </si>
+  <si>
+    <t>2.715+/-0.041</t>
+  </si>
+  <si>
+    <t>0.967+/-0.001</t>
+  </si>
+  <si>
+    <t>0.973+/-0.001</t>
+  </si>
+  <si>
+    <t>0.96+/-0.009</t>
+  </si>
+  <si>
+    <t>0.928</t>
+  </si>
+  <si>
+    <t>0.96+/-0.001</t>
+  </si>
+  <si>
+    <t>0.946+/-0.006</t>
+  </si>
+  <si>
+    <t>0.927</t>
+  </si>
+  <si>
+    <t>11.665+/-0.36</t>
+  </si>
+  <si>
+    <t>0.922+/-0.001</t>
+  </si>
+  <si>
+    <t>0.917+/-0.0</t>
+  </si>
+  <si>
+    <t>0.914</t>
+  </si>
+  <si>
+    <t>0.951+/-0.004</t>
+  </si>
+  <si>
+    <t>0.945+/-0.009</t>
+  </si>
+  <si>
+    <t>0.905</t>
+  </si>
+  <si>
+    <t>0.89+/-0.004</t>
+  </si>
+  <si>
+    <t>0.886+/-0.013</t>
+  </si>
+  <si>
+    <t>0.866</t>
+  </si>
+  <si>
+    <t>1.467+/-0.026</t>
+  </si>
+  <si>
+    <t>0.802</t>
+  </si>
+  <si>
+    <t>0.2+/-0.245</t>
+  </si>
+  <si>
+    <t>0.4+/-0.49</t>
+  </si>
+  <si>
+    <t>0.991+/-0.0</t>
+  </si>
+  <si>
+    <t>0.986+/-0.0</t>
+  </si>
+  <si>
+    <t>0.986</t>
+  </si>
+  <si>
+    <t>0.987+/-0.004</t>
+  </si>
+  <si>
+    <t>0.957</t>
+  </si>
+  <si>
+    <t>0.985+/-0.004</t>
+  </si>
+  <si>
+    <t>0.975</t>
+  </si>
+  <si>
+    <t>16.531+/-1.258</t>
+  </si>
+  <si>
+    <t>0.982+/-0.001</t>
+  </si>
+  <si>
+    <t>0.981+/-0.0</t>
+  </si>
+  <si>
+    <t>0.982</t>
+  </si>
+  <si>
+    <t>0.981+/-0.001</t>
+  </si>
+  <si>
+    <t>0.98+/-0.004</t>
+  </si>
+  <si>
+    <t>0.937</t>
+  </si>
+  <si>
+    <t>0.981+/-0.005</t>
+  </si>
+  <si>
+    <t>3.428+/-0.069</t>
+  </si>
+  <si>
+    <t>0.993+/-0.0</t>
+  </si>
+  <si>
+    <t>0.985</t>
+  </si>
+  <si>
+    <t>0.994+/-0.001</t>
+  </si>
+  <si>
+    <t>0.988+/-0.003</t>
+  </si>
+  <si>
+    <t>0.96</t>
+  </si>
+  <si>
+    <t>0.992+/-0.001</t>
+  </si>
+  <si>
+    <t>0.985+/-0.005</t>
+  </si>
+  <si>
+    <t>0.965</t>
+  </si>
+  <si>
+    <t>15.098+/-0.991</t>
+  </si>
+  <si>
+    <t>0.956+/-0.005</t>
   </si>
   <si>
     <t>0.92</t>
   </si>
   <si>
-    <t>0.908+/-0.001</t>
-  </si>
-  <si>
-    <t>0.9+/-0.01</t>
-  </si>
-  <si>
-    <t>0.899</t>
-  </si>
-  <si>
-    <t>2.431+/-0.02</t>
-  </si>
-  <si>
-    <t>0.945</t>
-  </si>
-  <si>
-    <t>0.973+/-0.001</t>
-  </si>
-  <si>
-    <t>0.96+/-0.008</t>
-  </si>
-  <si>
-    <t>0.929</t>
-  </si>
-  <si>
-    <t>0.959+/-0.001</t>
-  </si>
-  <si>
-    <t>0.945+/-0.007</t>
-  </si>
-  <si>
-    <t>0.927</t>
-  </si>
-  <si>
-    <t>9.854+/-0.048</t>
-  </si>
-  <si>
-    <t>0.918+/-0.002</t>
-  </si>
-  <si>
-    <t>0.913+/-0.0</t>
-  </si>
-  <si>
-    <t>0.914</t>
-  </si>
-  <si>
-    <t>0.948+/-0.007</t>
-  </si>
-  <si>
-    <t>0.944+/-0.01</t>
-  </si>
-  <si>
-    <t>0.916</t>
-  </si>
-  <si>
-    <t>0.885+/-0.005</t>
-  </si>
-  <si>
-    <t>0.878+/-0.011</t>
-  </si>
-  <si>
-    <t>0.853</t>
-  </si>
-  <si>
-    <t>0.876+/-0.023</t>
-  </si>
-  <si>
-    <t>0.99+/-0.0</t>
-  </si>
-  <si>
-    <t>0.986+/-0.0</t>
-  </si>
-  <si>
-    <t>0.987</t>
-  </si>
-  <si>
-    <t>0.991+/-0.0</t>
-  </si>
-  <si>
-    <t>0.988+/-0.004</t>
-  </si>
-  <si>
-    <t>0.962</t>
-  </si>
-  <si>
-    <t>0.989+/-0.0</t>
-  </si>
-  <si>
-    <t>0.983+/-0.005</t>
-  </si>
-  <si>
-    <t>0.975</t>
-  </si>
-  <si>
-    <t>13.561+/-0.518</t>
-  </si>
-  <si>
-    <t>0.982+/-0.001</t>
-  </si>
-  <si>
-    <t>0.981+/-0.0</t>
-  </si>
-  <si>
-    <t>0.981</t>
-  </si>
-  <si>
-    <t>0.981+/-0.004</t>
-  </si>
-  <si>
-    <t>0.937</t>
-  </si>
-  <si>
-    <t>0.981+/-0.001</t>
-  </si>
-  <si>
-    <t>0.98+/-0.005</t>
-  </si>
-  <si>
-    <t>0.971</t>
-  </si>
-  <si>
-    <t>3.216+/-0.032</t>
-  </si>
-  <si>
-    <t>0.993+/-0.0</t>
-  </si>
-  <si>
-    <t>0.985</t>
-  </si>
-  <si>
-    <t>0.994+/-0.0</t>
-  </si>
-  <si>
-    <t>0.987+/-0.004</t>
-  </si>
-  <si>
-    <t>0.957</t>
-  </si>
-  <si>
-    <t>0.992+/-0.0</t>
-  </si>
-  <si>
-    <t>0.985+/-0.005</t>
-  </si>
-  <si>
-    <t>0.967</t>
-  </si>
-  <si>
-    <t>13.546+/-0.089</t>
-  </si>
-  <si>
-    <t>0.953+/-0.006</t>
-  </si>
-  <si>
-    <t>0.948+/-0.0</t>
-  </si>
-  <si>
-    <t>0.923</t>
-  </si>
-  <si>
-    <t>0.92+/-0.011</t>
-  </si>
-  <si>
-    <t>0.914+/-0.016</t>
-  </si>
-  <si>
-    <t>0.729</t>
-  </si>
-  <si>
-    <t>0.992+/-0.001</t>
-  </si>
-  <si>
-    <t>0.99+/-0.003</t>
-  </si>
-  <si>
-    <t>0.973</t>
-  </si>
-  <si>
-    <t>0.902+/-0.036</t>
+    <t>0.926+/-0.01</t>
+  </si>
+  <si>
+    <t>0.922+/-0.013</t>
+  </si>
+  <si>
+    <t>0.719</t>
+  </si>
+  <si>
+    <t>0.991+/-0.003</t>
+  </si>
+  <si>
+    <t>0.976</t>
+  </si>
+  <si>
+    <t>1.462+/-0.034</t>
   </si>
 </sst>
 </file>
@@ -676,16 +688,16 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F2">
-        <v>0.5</v>
+        <v>41</v>
+      </c>
+      <c r="F2" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -693,19 +705,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F3">
-        <v>0.5</v>
+        <v>22</v>
+      </c>
+      <c r="F3" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -713,19 +725,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F4">
-        <v>0.6190476190476191</v>
+        <v>26</v>
+      </c>
+      <c r="F4" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -733,19 +745,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E5" t="s">
-        <v>46</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
+        <v>42</v>
+      </c>
+      <c r="F5" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -753,19 +765,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E6" t="s">
-        <v>47</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -773,19 +785,19 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -793,19 +805,19 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E8" t="s">
-        <v>49</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
+        <v>45</v>
+      </c>
+      <c r="F8" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -813,19 +825,19 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E9" t="s">
-        <v>50</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
+        <v>46</v>
+      </c>
+      <c r="F9" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -833,19 +845,19 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E10" t="s">
-        <v>51</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
+        <v>47</v>
+      </c>
+      <c r="F10" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -853,19 +865,19 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E11" t="s">
-        <v>52</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
+        <v>48</v>
+      </c>
+      <c r="F11" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -903,19 +915,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F2">
-        <v>0.5</v>
+        <v>78</v>
+      </c>
+      <c r="F2" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -923,19 +935,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D3" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="E3" t="s">
-        <v>82</v>
-      </c>
-      <c r="F3">
-        <v>0.5</v>
+        <v>63</v>
+      </c>
+      <c r="F3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -943,19 +955,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E4" t="s">
-        <v>83</v>
-      </c>
-      <c r="F4">
-        <v>0.8015873015873016</v>
+        <v>79</v>
+      </c>
+      <c r="F4" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -963,19 +975,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E5" t="s">
-        <v>84</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
+        <v>80</v>
+      </c>
+      <c r="F5" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -983,19 +995,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E6" t="s">
-        <v>85</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
+        <v>81</v>
+      </c>
+      <c r="F6" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1003,19 +1015,19 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E7" t="s">
-        <v>86</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
+        <v>82</v>
+      </c>
+      <c r="F7" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1023,19 +1035,19 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C8" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D8" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="E8" t="s">
-        <v>87</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
+        <v>83</v>
+      </c>
+      <c r="F8" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1043,19 +1055,19 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E9" t="s">
-        <v>88</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
+        <v>84</v>
+      </c>
+      <c r="F9" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1063,19 +1075,19 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D10" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="E10" t="s">
-        <v>89</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
+        <v>85</v>
+      </c>
+      <c r="F10" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1083,19 +1095,19 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D11" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E11" t="s">
-        <v>90</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
+        <v>86</v>
+      </c>
+      <c r="F11" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
